--- a/references/kfw_location_types.xlsx
+++ b/references/kfw_location_types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mauricio\projects\Github\open-geodata-model\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEC19F6-92F7-4B7D-904C-BD1F49EAE1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99998C5-78A5-49A0-AFCB-B375509AAC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3959,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
